--- a/medicine/Œil et vue/Monochromatisme/Monochromatisme.xlsx
+++ b/medicine/Œil et vue/Monochromatisme/Monochromatisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monochromatisme est une forme de vision dans laquelle l'œil a un seul type de photorécepteur conique, permettant à l'animal monochrome ou monochromate, de ne distinguer que des différences de luminosité.
-Chez quelques poissons abyssaux, des amphibiens ou des mammifères nocturnes (mammifères marins, chauves-souris, des rongeurs et des singes de nuit) adaptés à la vue scotopique (dans l'obscurité), la présence d'un seul cône leur confère une vision monochromatique[1].
+Chez quelques poissons abyssaux, des amphibiens ou des mammifères nocturnes (mammifères marins, chauves-souris, des rongeurs et des singes de nuit) adaptés à la vue scotopique (dans l'obscurité), la présence d'un seul cône leur confère une vision monochromatique.
 Chez l'homme doté d'une vision trichromate, l'achromatopsie (appelée aussi monochromatisme de cône) est une maladie du système visuel caractérisée par la perte de deux cônes.
 </t>
         </is>
